--- a/data/RL_input.xlsx
+++ b/data/RL_input.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Desktop/COVID19/RL/05_15_2020/interface_model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Interface_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B76F009-5E07-4A47-BC55-1B3B8B909EA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3BED5-3C06-4442-81D7-549F7590DA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="3260" windowWidth="19420" windowHeight="12260" activeTab="5" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
+    <workbookView xWindow="9380" yWindow="2680" windowWidth="19420" windowHeight="12260" activeTab="2" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
   </bookViews>
   <sheets>
-    <sheet name="VSL_mod" sheetId="5" r:id="rId1"/>
-    <sheet name="VSL" sheetId="1" r:id="rId2"/>
-    <sheet name="unemploy" sheetId="2" r:id="rId3"/>
-    <sheet name="unemploy_cof" sheetId="3" r:id="rId4"/>
-    <sheet name="labor_for" sheetId="4" r:id="rId5"/>
-    <sheet name="unemploy_cof_mod" sheetId="6" r:id="rId6"/>
+    <sheet name="VSL" sheetId="1" r:id="rId1"/>
+    <sheet name="VSL_mod" sheetId="5" r:id="rId2"/>
+    <sheet name="actual_unemploy" sheetId="2" r:id="rId3"/>
+    <sheet name="duration_unemploy" sheetId="9" r:id="rId4"/>
+    <sheet name="unemploy_cof" sheetId="6" r:id="rId5"/>
+    <sheet name="labor_for" sheetId="4" r:id="rId6"/>
+    <sheet name="others" sheetId="7" r:id="rId7"/>
+    <sheet name="Source" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="94">
   <si>
     <t>0</t>
   </si>
@@ -73,21 +75,6 @@
     <t>DistrictofColumbia</t>
   </si>
   <si>
-    <t>Week</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>coefficient</t>
   </si>
   <si>
@@ -103,18 +90,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>x_0</t>
-  </si>
-  <si>
     <t>AL</t>
   </si>
   <si>
@@ -269,13 +244,92 @@
   </si>
   <si>
     <t>RI</t>
+  </si>
+  <si>
+    <t>med_sal</t>
+  </si>
+  <si>
+    <t>cost_symptom_test</t>
+  </si>
+  <si>
+    <t>cost_contact</t>
+  </si>
+  <si>
+    <t>cost_universal</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max_date</t>
+  </si>
+  <si>
+    <t>sd_date</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Value of a statistical life (VSL) by age group</t>
+  </si>
+  <si>
+    <t>Greenstone, Michael and Nigam, Vishan, Does Social Distancing Matter? (March 30, 2020). University of Chicago, Becker Friedman Institute for Economics Working Paper No. 2020-26. Available at SSRN: https://ssrn.com/abstract=3561244 or http://dx.doi.org/10.2139/ssrn.3561244</t>
+  </si>
+  <si>
+    <t>Labor force participation rate</t>
+  </si>
+  <si>
+    <t>“Labor Force Participation Rate.” FRED, 8 May 2020, fred.stlouisfed.org/series/CIVPART.</t>
+  </si>
+  <si>
+    <t>Unemployment rate by State</t>
+  </si>
+  <si>
+    <t>“Unemployment Insurance Weekly Claims Data.” Unemployment Insurance Weekly Claims Data, Employment &amp; Training Administration (ETA) - U.S. Department of Labor, oui.doleta.gov/unemploy/claims.asp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unemployment rate projection for July, 2020 by State </t>
+  </si>
+  <si>
+    <t>“Nearly 20 Million Workers Will Likely Be Laid off or Furloughed by July: Updated State Numbers Project Further Job Losses Due to the Coronavirus.” Economic Policy Institute, www.epi.org/blog/nearly-20-million-jobs-lost-by-july-due-to-the-coronavirus/.</t>
+  </si>
+  <si>
+    <t>Median salary for unemployed</t>
+  </si>
+  <si>
+    <t>"How many workers are employed in sectors directly affected by COVID-19 shutdowns, where do they work, and how much do they earn?" United States Bureau of Labor Statistics, https://www.bls.gov/opub/mlr/2020/article/covid-19-shutdowns.htm</t>
+  </si>
+  <si>
+    <t>Testing cost of COVID 19</t>
+  </si>
+  <si>
+    <t>"Medicare Administrative Contractor (MAC) COVID-19 Test Pricing." Centers for Medicare&amp; Medicaid Services, https://www.cms.gov/files/document/mac-covid-19-test-pricing.pdf</t>
+  </si>
+  <si>
+    <t>Government measures by State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"COVID-19 estimate downloads." Institute for Health Metrics and Evaluation, http://www.healthdata.org/covid/data-downloads
+ </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,6 +346,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -318,11 +379,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,6 +703,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6573479A-1AD2-C246-BE0A-9CCAE5A6BCAB}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAA7260-4112-4A9A-AF13-FA7948AFBE54}">
   <dimension ref="A1:E102"/>
   <sheetViews>
@@ -648,10 +840,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1490,310 +1682,184 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6573479A-1AD2-C246-BE0A-9CCAE5A6BCAB}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>19</v>
-      </c>
-      <c r="C3" s="2">
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2">
-        <v>16.100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5" s="2">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>69</v>
-      </c>
-      <c r="C8" s="2">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>79</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CD20C6-A442-674F-A561-9B6083CE3F6D}">
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BA16"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>53</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>62</v>
       </c>
       <c r="AN1" t="s">
         <v>9</v>
       </c>
       <c r="AO1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="AP1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="AQ1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="AR1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="AS1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="AT1" t="s">
         <v>10</v>
       </c>
       <c r="AU1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AV1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AW1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AX1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AY1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AZ1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="BA1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
+      <c r="A2">
+        <v>20200104</v>
       </c>
       <c r="B2">
         <v>1.1000000000000001</v>
@@ -1953,8 +2019,8 @@
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
+      <c r="A3">
+        <v>20200111</v>
       </c>
       <c r="B3">
         <v>0.9</v>
@@ -2114,8 +2180,8 @@
       </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
+      <c r="A4">
+        <v>20200118</v>
       </c>
       <c r="B4">
         <v>0.96</v>
@@ -2275,8 +2341,8 @@
       </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
+      <c r="A5">
+        <v>20200125</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2436,8 +2502,8 @@
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="A6">
+        <v>20200201</v>
       </c>
       <c r="B6">
         <v>0.87</v>
@@ -2597,8 +2663,8 @@
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="A7">
+        <v>20200208</v>
       </c>
       <c r="B7">
         <v>0.86</v>
@@ -2758,8 +2824,8 @@
       </c>
     </row>
     <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="A8">
+        <v>20200215</v>
       </c>
       <c r="B8">
         <v>0.83</v>
@@ -2919,8 +2985,8 @@
       </c>
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
+      <c r="A9">
+        <v>20200222</v>
       </c>
       <c r="B9">
         <v>0.77</v>
@@ -3080,8 +3146,8 @@
       </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
+      <c r="A10">
+        <v>20200229</v>
       </c>
       <c r="B10">
         <v>0.71</v>
@@ -3241,8 +3307,8 @@
       </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
+      <c r="A11">
+        <v>20200307</v>
       </c>
       <c r="B11">
         <v>0.68</v>
@@ -3402,8 +3468,8 @@
       </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
+      <c r="A12">
+        <v>20200314</v>
       </c>
       <c r="B12">
         <v>0.65</v>
@@ -3563,8 +3629,8 @@
       </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
+      <c r="A13">
+        <v>20200321</v>
       </c>
       <c r="B13">
         <v>0.94</v>
@@ -3724,8 +3790,8 @@
       </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
+      <c r="A14">
+        <v>20200328</v>
       </c>
       <c r="B14">
         <v>2.71</v>
@@ -3885,8 +3951,8 @@
       </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
+      <c r="A15">
+        <v>20200404</v>
       </c>
       <c r="B15">
         <v>4.9400000000000004</v>
@@ -4046,8 +4112,8 @@
       </c>
     </row>
     <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
+      <c r="A16">
+        <v>20200411</v>
       </c>
       <c r="B16">
         <v>7.48</v>
@@ -4205,6 +4271,9 @@
       <c r="BA16">
         <v>5.3</v>
       </c>
+    </row>
+    <row r="17" spans="40:40" x14ac:dyDescent="0.2">
+      <c r="AN17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4212,367 +4281,912 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A8E451A-8B1E-7D45-BB45-106C5AAB6FA3}">
-  <dimension ref="A1:AX9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8A6DB2-47D9-364B-886F-A684F3E3E595}">
+  <dimension ref="A1:BA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>20200801</v>
+      </c>
+      <c r="C2">
+        <v>20200801</v>
+      </c>
+      <c r="D2">
+        <v>20200801</v>
+      </c>
+      <c r="E2">
+        <v>20200801</v>
+      </c>
+      <c r="F2">
+        <v>20200801</v>
+      </c>
+      <c r="G2">
+        <v>20200801</v>
+      </c>
+      <c r="H2">
+        <v>20200411</v>
+      </c>
+      <c r="I2">
+        <v>20200801</v>
+      </c>
+      <c r="J2">
+        <v>20200801</v>
+      </c>
+      <c r="K2">
+        <v>20200801</v>
+      </c>
+      <c r="L2">
+        <v>20200801</v>
+      </c>
+      <c r="M2">
+        <v>20200801</v>
+      </c>
+      <c r="N2">
+        <v>20200801</v>
+      </c>
+      <c r="O2">
+        <v>20200801</v>
+      </c>
+      <c r="P2">
+        <v>20200801</v>
+      </c>
+      <c r="Q2">
+        <v>20200801</v>
+      </c>
+      <c r="R2">
+        <v>20200801</v>
+      </c>
+      <c r="S2">
+        <v>20200801</v>
+      </c>
+      <c r="T2">
+        <v>20200801</v>
+      </c>
+      <c r="U2">
+        <v>20200801</v>
+      </c>
+      <c r="V2">
+        <v>20200801</v>
+      </c>
+      <c r="W2">
+        <v>20200801</v>
+      </c>
+      <c r="X2">
+        <v>20200801</v>
+      </c>
+      <c r="Y2">
+        <v>20200801</v>
+      </c>
+      <c r="Z2">
+        <v>20200801</v>
+      </c>
+      <c r="AA2">
+        <v>20200801</v>
+      </c>
+      <c r="AB2">
+        <v>20200801</v>
+      </c>
+      <c r="AC2">
+        <v>20200801</v>
+      </c>
+      <c r="AD2">
+        <v>20200801</v>
+      </c>
+      <c r="AE2">
+        <v>20200801</v>
+      </c>
+      <c r="AF2">
+        <v>20200801</v>
+      </c>
+      <c r="AG2">
+        <v>20200801</v>
+      </c>
+      <c r="AH2">
+        <v>20200801</v>
+      </c>
+      <c r="AI2">
+        <v>20200801</v>
+      </c>
+      <c r="AJ2">
+        <v>20200801</v>
+      </c>
+      <c r="AK2">
+        <v>20200801</v>
+      </c>
+      <c r="AL2">
+        <v>20200801</v>
+      </c>
+      <c r="AM2">
+        <v>20200801</v>
+      </c>
+      <c r="AN2">
+        <v>20200411</v>
+      </c>
+      <c r="AO2">
+        <v>20200411</v>
+      </c>
+      <c r="AP2">
+        <v>20200801</v>
+      </c>
+      <c r="AQ2">
+        <v>20200801</v>
+      </c>
+      <c r="AR2">
+        <v>20200801</v>
+      </c>
+      <c r="AS2">
+        <v>20200801</v>
+      </c>
+      <c r="AT2">
+        <v>20200411</v>
+      </c>
+      <c r="AU2">
+        <v>20200801</v>
+      </c>
+      <c r="AV2">
+        <v>20200411</v>
+      </c>
+      <c r="AW2">
+        <v>20200801</v>
+      </c>
+      <c r="AX2">
+        <v>20200411</v>
+      </c>
+      <c r="AY2">
+        <v>20200801</v>
+      </c>
+      <c r="AZ2">
+        <v>20200801</v>
+      </c>
+      <c r="BA2">
+        <v>20200801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>20200405</v>
+      </c>
+      <c r="C3">
+        <v>20200329</v>
+      </c>
+      <c r="D3">
+        <v>20200401</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3">
+        <v>20200319</v>
+      </c>
+      <c r="G3">
+        <v>20200326</v>
+      </c>
+      <c r="H3">
+        <v>20200324</v>
+      </c>
+      <c r="I3">
+        <v>20200401</v>
+      </c>
+      <c r="J3">
+        <v>20200403</v>
+      </c>
+      <c r="K3">
+        <v>20200404</v>
+      </c>
+      <c r="L3">
+        <v>20200325</v>
+      </c>
+      <c r="M3">
+        <v>20200325</v>
+      </c>
+      <c r="N3">
+        <v>20200322</v>
+      </c>
+      <c r="O3">
+        <v>20200325</v>
+      </c>
+      <c r="P3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q3">
+        <v>20200330</v>
+      </c>
+      <c r="R3">
+        <v>20200327</v>
+      </c>
+      <c r="S3">
+        <v>20200324</v>
+      </c>
+      <c r="T3">
+        <v>20200402</v>
+      </c>
+      <c r="U3">
+        <v>20200331</v>
+      </c>
+      <c r="V3">
+        <v>20200324</v>
+      </c>
+      <c r="W3">
+        <v>20200324</v>
+      </c>
+      <c r="X3">
+        <v>20200328</v>
+      </c>
+      <c r="Y3">
+        <v>20200404</v>
+      </c>
+      <c r="Z3">
+        <v>20200406</v>
+      </c>
+      <c r="AA3">
+        <v>20200328</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC3">
+        <v>20200401</v>
+      </c>
+      <c r="AD3">
+        <v>20200328</v>
+      </c>
+      <c r="AE3">
+        <v>20200322</v>
+      </c>
+      <c r="AF3">
+        <v>20200323</v>
+      </c>
+      <c r="AG3">
+        <v>20200322</v>
+      </c>
+      <c r="AH3">
+        <v>20200331</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3">
+        <v>20200324</v>
+      </c>
+      <c r="AK3">
+        <v>20200324</v>
+      </c>
+      <c r="AL3">
+        <v>20200323</v>
+      </c>
+      <c r="AM3">
+        <v>20200402</v>
+      </c>
+      <c r="AN3">
+        <v>20200315</v>
+      </c>
+      <c r="AO3">
+        <v>20200328</v>
+      </c>
+      <c r="AP3">
+        <v>20200408</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR3">
+        <v>20200401</v>
+      </c>
+      <c r="AS3">
+        <v>20200402</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV3">
+        <v>20200326</v>
+      </c>
+      <c r="AW3">
+        <v>20200330</v>
+      </c>
+      <c r="AX3">
+        <v>20200323</v>
+      </c>
+      <c r="AY3">
+        <v>20200325</v>
+      </c>
+      <c r="AZ3">
+        <v>20200325</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="4"/>
+      <c r="AN7" s="4"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED49763D-476B-9E4F-B972-18DC70DDC881}">
+  <dimension ref="A1:AX3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>42</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>43</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>44</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>46</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>50</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>51</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>52</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
         <v>53</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AN1" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
         <v>55</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AQ1" t="s">
         <v>57</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AR1" t="s">
         <v>58</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AS1" t="s">
         <v>59</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AT1" t="s">
         <v>60</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AU1" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AV1" t="s">
         <v>62</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AW1" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AX1" t="s">
         <v>64</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B2">
-        <v>13.68</v>
+        <v>14.5</v>
       </c>
       <c r="C2">
-        <v>14.81</v>
+        <v>17.8</v>
       </c>
       <c r="D2">
-        <v>14.82</v>
+        <v>15.4</v>
       </c>
       <c r="E2">
-        <v>14.27</v>
+        <v>15.3</v>
       </c>
       <c r="F2">
-        <v>13.74</v>
+        <v>15.6</v>
       </c>
       <c r="G2">
-        <v>13.31</v>
+        <v>14.1</v>
       </c>
       <c r="H2">
-        <v>16.62</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="I2">
-        <v>15.48</v>
+        <v>16.8</v>
       </c>
       <c r="J2">
-        <v>15.25</v>
+        <v>15.5</v>
       </c>
       <c r="K2">
-        <v>13.91</v>
+        <v>14.9</v>
       </c>
       <c r="L2">
-        <v>16.809999999999999</v>
+        <v>17.8</v>
       </c>
       <c r="M2">
-        <v>12.37</v>
+        <v>14</v>
       </c>
       <c r="N2">
-        <v>13.34</v>
+        <v>15.6</v>
       </c>
       <c r="O2">
-        <v>14.32</v>
+        <v>15</v>
       </c>
       <c r="P2">
-        <v>12.14</v>
+        <v>14.2</v>
       </c>
       <c r="Q2">
-        <v>13.92</v>
+        <v>14.7</v>
       </c>
       <c r="R2">
-        <v>14.84</v>
+        <v>16.3</v>
       </c>
       <c r="S2">
-        <v>16.940000000000001</v>
+        <v>18</v>
       </c>
       <c r="T2">
-        <v>14.18</v>
+        <v>15.7</v>
       </c>
       <c r="U2">
-        <v>12.78</v>
+        <v>13.9</v>
       </c>
       <c r="V2">
-        <v>12.85</v>
+        <v>15.1</v>
       </c>
       <c r="W2">
-        <v>20.13</v>
+        <v>21.77</v>
       </c>
       <c r="X2">
-        <v>14.74</v>
+        <v>15.7</v>
       </c>
       <c r="Y2">
-        <v>12.67</v>
+        <v>15</v>
       </c>
       <c r="Z2">
-        <v>16.809999999999999</v>
+        <v>17.5</v>
       </c>
       <c r="AA2">
-        <v>15.35</v>
+        <v>16.3</v>
       </c>
       <c r="AB2">
-        <v>14.59</v>
+        <v>15.1</v>
       </c>
       <c r="AC2">
-        <v>18.03</v>
+        <v>19.7</v>
       </c>
       <c r="AD2">
-        <v>14.46</v>
+        <v>15</v>
       </c>
       <c r="AE2">
-        <v>12.86</v>
+        <v>15.6</v>
       </c>
       <c r="AF2">
-        <v>14.97</v>
+        <v>16.2</v>
       </c>
       <c r="AG2">
-        <v>14.4</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AH2">
-        <v>14.94</v>
+        <v>15.5</v>
       </c>
       <c r="AI2">
-        <v>14.02</v>
+        <v>15.6</v>
       </c>
       <c r="AJ2">
-        <v>14.63</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="AK2">
-        <v>13.64</v>
+        <v>14.7</v>
       </c>
       <c r="AL2">
-        <v>13.77</v>
+        <v>15.5</v>
       </c>
       <c r="AM2">
-        <v>16.690000000000001</v>
+        <v>18.48</v>
       </c>
       <c r="AN2">
-        <v>14.21</v>
+        <v>15</v>
       </c>
       <c r="AO2">
-        <v>15.12</v>
+        <v>15.8</v>
       </c>
       <c r="AP2">
-        <v>15.21</v>
+        <v>15.8</v>
       </c>
       <c r="AQ2">
-        <v>14.16</v>
+        <v>15.2</v>
       </c>
       <c r="AR2">
-        <v>14.07</v>
+        <v>14.8</v>
       </c>
       <c r="AS2">
-        <v>20.46</v>
+        <v>21.2</v>
       </c>
       <c r="AT2">
-        <v>13.41</v>
+        <v>14</v>
       </c>
       <c r="AU2">
-        <v>14.31</v>
+        <v>15.97</v>
       </c>
       <c r="AV2">
-        <v>14.07</v>
+        <v>16.3</v>
       </c>
       <c r="AW2">
-        <v>13.89</v>
+        <v>15.6</v>
       </c>
       <c r="AX2">
-        <v>15.08</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B3">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
       <c r="C3">
-        <v>2.93</v>
+        <v>2.69</v>
       </c>
       <c r="D3">
         <v>0.56999999999999995</v>
       </c>
       <c r="E3">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F3">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="G3">
         <v>0.72</v>
       </c>
       <c r="H3">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="I3">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="J3">
         <v>0.28000000000000003</v>
       </c>
       <c r="K3">
-        <v>0.66</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="L3">
         <v>0.93</v>
       </c>
       <c r="M3">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="N3">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="O3">
         <v>0.65</v>
       </c>
       <c r="P3">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="Q3">
         <v>0.72</v>
@@ -4587,28 +5201,28 @@
         <v>1.29</v>
       </c>
       <c r="U3">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="V3">
         <v>2.0499999999999998</v>
       </c>
       <c r="W3">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="X3">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="Y3">
         <v>2.12</v>
       </c>
       <c r="Z3">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="AA3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AB3">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AC3">
         <v>1.3</v>
@@ -4617,19 +5231,19 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="AE3">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="AF3">
         <v>1.1200000000000001</v>
       </c>
       <c r="AG3">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="AH3">
         <v>0.36</v>
       </c>
       <c r="AI3">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AJ3">
         <v>1.23</v>
@@ -4638,16 +5252,16 @@
         <v>1.02</v>
       </c>
       <c r="AL3">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AM3">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AN3">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="AO3">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="AP3">
         <v>0.53</v>
@@ -4665,928 +5279,16 @@
         <v>0.49</v>
       </c>
       <c r="AU3">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AV3">
-        <v>2.5499999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="AW3">
         <v>1.41</v>
       </c>
       <c r="AX3">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0.98</v>
-      </c>
-      <c r="C4">
-        <v>1.53</v>
-      </c>
-      <c r="D4">
-        <v>0.81</v>
-      </c>
-      <c r="E4">
-        <v>0.9</v>
-      </c>
-      <c r="F4">
-        <v>1.37</v>
-      </c>
-      <c r="G4">
-        <v>0.8</v>
-      </c>
-      <c r="H4">
-        <v>1.27</v>
-      </c>
-      <c r="I4">
-        <v>0.77</v>
-      </c>
-      <c r="J4">
-        <v>0.47</v>
-      </c>
-      <c r="K4">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="L4">
-        <v>0.97</v>
-      </c>
-      <c r="M4">
-        <v>0.98</v>
-      </c>
-      <c r="N4">
-        <v>1.01</v>
-      </c>
-      <c r="O4">
-        <v>0.88</v>
-      </c>
-      <c r="P4">
-        <v>0.88</v>
-      </c>
-      <c r="Q4">
-        <v>0.76</v>
-      </c>
-      <c r="R4">
-        <v>0.94</v>
-      </c>
-      <c r="S4">
-        <v>1.04</v>
-      </c>
-      <c r="T4">
-        <v>0.86</v>
-      </c>
-      <c r="U4">
-        <v>0.86</v>
-      </c>
-      <c r="V4">
-        <v>1.02</v>
-      </c>
-      <c r="W4">
-        <v>2.14</v>
-      </c>
-      <c r="X4">
-        <v>0.78</v>
-      </c>
-      <c r="Y4">
-        <v>1.24</v>
-      </c>
-      <c r="Z4">
-        <v>0.97</v>
-      </c>
-      <c r="AA4">
-        <v>0.76</v>
-      </c>
-      <c r="AB4">
-        <v>0.72</v>
-      </c>
-      <c r="AC4">
-        <v>1.2</v>
-      </c>
-      <c r="AD4">
-        <v>1.42</v>
-      </c>
-      <c r="AE4">
-        <v>1.35</v>
-      </c>
-      <c r="AF4">
-        <v>0.83</v>
-      </c>
-      <c r="AG4">
-        <v>1.38</v>
-      </c>
-      <c r="AH4">
-        <v>0.94</v>
-      </c>
-      <c r="AI4">
-        <v>0.86</v>
-      </c>
-      <c r="AJ4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AK4">
-        <v>0.79</v>
-      </c>
-      <c r="AL4">
-        <v>0.96</v>
-      </c>
-      <c r="AM4">
-        <v>1.38</v>
-      </c>
-      <c r="AN4">
-        <v>0.91</v>
-      </c>
-      <c r="AO4">
-        <v>0.78</v>
-      </c>
-      <c r="AP4">
-        <v>0.88</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9</v>
-      </c>
-      <c r="AR4">
-        <v>0.67</v>
-      </c>
-      <c r="AS4">
-        <v>1.45</v>
-      </c>
-      <c r="AT4">
-        <v>0.88</v>
-      </c>
-      <c r="AU4">
-        <v>1.53</v>
-      </c>
-      <c r="AV4">
-        <v>1.64</v>
-      </c>
-      <c r="AW4">
-        <v>0.83</v>
-      </c>
-      <c r="AX4">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>14.97</v>
-      </c>
-      <c r="C5">
-        <v>13.8</v>
-      </c>
-      <c r="D5">
-        <v>15.62</v>
-      </c>
-      <c r="E5">
-        <v>15.05</v>
-      </c>
-      <c r="F5">
-        <v>13.93</v>
-      </c>
-      <c r="G5">
-        <v>15.04</v>
-      </c>
-      <c r="H5">
-        <v>13.54</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>18.29</v>
-      </c>
-      <c r="K5">
-        <v>12.91</v>
-      </c>
-      <c r="L5">
-        <v>14.38</v>
-      </c>
-      <c r="M5">
-        <v>14.12</v>
-      </c>
-      <c r="N5">
-        <v>14.6</v>
-      </c>
-      <c r="O5">
-        <v>15.23</v>
-      </c>
-      <c r="P5">
-        <v>14.01</v>
-      </c>
-      <c r="Q5">
-        <v>15.01</v>
-      </c>
-      <c r="R5">
-        <v>13.94</v>
-      </c>
-      <c r="S5">
-        <v>13.7</v>
-      </c>
-      <c r="T5">
-        <v>13.8</v>
-      </c>
-      <c r="U5">
-        <v>14.67</v>
-      </c>
-      <c r="V5">
-        <v>13.21</v>
-      </c>
-      <c r="W5">
-        <v>13.37</v>
-      </c>
-      <c r="X5">
-        <v>14.86</v>
-      </c>
-      <c r="Y5">
-        <v>12.95</v>
-      </c>
-      <c r="Z5">
-        <v>15.1</v>
-      </c>
-      <c r="AA5">
-        <v>14.96</v>
-      </c>
-      <c r="AB5">
-        <v>14.86</v>
-      </c>
-      <c r="AC5">
-        <v>13.29</v>
-      </c>
-      <c r="AD5">
-        <v>12.94</v>
-      </c>
-      <c r="AE5">
-        <v>13.61</v>
-      </c>
-      <c r="AF5">
-        <v>14.35</v>
-      </c>
-      <c r="AG5">
-        <v>13.35</v>
-      </c>
-      <c r="AH5">
-        <v>13.95</v>
-      </c>
-      <c r="AI5">
-        <v>15.05</v>
-      </c>
-      <c r="AJ5">
-        <v>13.2</v>
-      </c>
-      <c r="AK5">
-        <v>15.1</v>
-      </c>
-      <c r="AL5">
-        <v>13.85</v>
-      </c>
-      <c r="AM5">
-        <v>13.61</v>
-      </c>
-      <c r="AN5">
-        <v>14.67</v>
-      </c>
-      <c r="AO5">
-        <v>16.21</v>
-      </c>
-      <c r="AP5">
-        <v>14.74</v>
-      </c>
-      <c r="AQ5">
-        <v>15.14</v>
-      </c>
-      <c r="AR5">
-        <v>15.57</v>
-      </c>
-      <c r="AS5">
-        <v>13.9</v>
-      </c>
-      <c r="AT5">
-        <v>14.54</v>
-      </c>
-      <c r="AU5">
-        <v>12.97</v>
-      </c>
-      <c r="AV5">
-        <v>14.21</v>
-      </c>
-      <c r="AW5">
-        <v>13.83</v>
-      </c>
-      <c r="AX5">
-        <v>16.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>14.47</v>
-      </c>
-      <c r="C6">
-        <v>17.73</v>
-      </c>
-      <c r="D6">
-        <v>15.39</v>
-      </c>
-      <c r="E6">
-        <v>15.26</v>
-      </c>
-      <c r="F6">
-        <v>15.84</v>
-      </c>
-      <c r="G6">
-        <v>14.02</v>
-      </c>
-      <c r="H6">
-        <v>19.13</v>
-      </c>
-      <c r="I6">
-        <v>16.75</v>
-      </c>
-      <c r="J6">
-        <v>15.53</v>
-      </c>
-      <c r="K6">
-        <v>14.57</v>
-      </c>
-      <c r="L6">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="M6">
-        <v>13.77</v>
-      </c>
-      <c r="N6">
-        <v>15.51</v>
-      </c>
-      <c r="O6">
-        <v>14.97</v>
-      </c>
-      <c r="P6">
-        <v>14.02</v>
-      </c>
-      <c r="Q6">
-        <v>14.64</v>
-      </c>
-      <c r="R6">
-        <v>15.89</v>
-      </c>
-      <c r="S6">
-        <v>17.62</v>
-      </c>
-      <c r="T6">
-        <v>15.47</v>
-      </c>
-      <c r="U6">
-        <v>13.83</v>
-      </c>
-      <c r="V6">
-        <v>14.91</v>
-      </c>
-      <c r="W6">
-        <v>21.95</v>
-      </c>
-      <c r="X6">
-        <v>15.63</v>
-      </c>
-      <c r="Y6">
-        <v>14.79</v>
-      </c>
-      <c r="Z6">
-        <v>17.47</v>
-      </c>
-      <c r="AA6">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="AB6">
-        <v>15.03</v>
-      </c>
-      <c r="AC6">
-        <v>19.32</v>
-      </c>
-      <c r="AD6">
-        <v>15.03</v>
-      </c>
-      <c r="AE6">
-        <v>15.54</v>
-      </c>
-      <c r="AF6">
-        <v>16.09</v>
-      </c>
-      <c r="AG6">
-        <v>16.12</v>
-      </c>
-      <c r="AH6">
-        <v>15.3</v>
-      </c>
-      <c r="AI6">
-        <v>15.57</v>
-      </c>
-      <c r="AJ6">
-        <v>15.86</v>
-      </c>
-      <c r="AK6">
-        <v>14.66</v>
-      </c>
-      <c r="AL6">
-        <v>15.31</v>
-      </c>
-      <c r="AM6">
-        <v>19</v>
-      </c>
-      <c r="AN6">
-        <v>14.95</v>
-      </c>
-      <c r="AO6">
-        <v>15.79</v>
-      </c>
-      <c r="AP6">
-        <v>15.74</v>
-      </c>
-      <c r="AQ6">
-        <v>15.17</v>
-      </c>
-      <c r="AR6">
-        <v>14.78</v>
-      </c>
-      <c r="AS6">
-        <v>22.23</v>
-      </c>
-      <c r="AT6">
-        <v>13.91</v>
-      </c>
-      <c r="AU6">
-        <v>16.13</v>
-      </c>
-      <c r="AV6">
-        <v>16.62</v>
-      </c>
-      <c r="AW6">
-        <v>15.3</v>
-      </c>
-      <c r="AX6">
-        <v>16.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>0.78</v>
-      </c>
-      <c r="C7">
-        <v>2.93</v>
-      </c>
-      <c r="D7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E7">
-        <v>0.99</v>
-      </c>
-      <c r="F7">
-        <v>2.1</v>
-      </c>
-      <c r="G7">
-        <v>0.72</v>
-      </c>
-      <c r="H7">
-        <v>2.5</v>
-      </c>
-      <c r="I7">
-        <v>1.27</v>
-      </c>
-      <c r="J7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K7">
-        <v>0.66</v>
-      </c>
-      <c r="L7">
-        <v>0.93</v>
-      </c>
-      <c r="M7">
-        <v>1.4</v>
-      </c>
-      <c r="N7">
-        <v>2.17</v>
-      </c>
-      <c r="O7">
-        <v>0.65</v>
-      </c>
-      <c r="P7">
-        <v>1.88</v>
-      </c>
-      <c r="Q7">
-        <v>0.72</v>
-      </c>
-      <c r="R7">
-        <v>1.06</v>
-      </c>
-      <c r="S7">
-        <v>0.68</v>
-      </c>
-      <c r="T7">
-        <v>1.29</v>
-      </c>
-      <c r="U7">
-        <v>1.05</v>
-      </c>
-      <c r="V7">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="W7">
-        <v>1.83</v>
-      </c>
-      <c r="X7">
-        <v>0.89</v>
-      </c>
-      <c r="Y7">
-        <v>2.12</v>
-      </c>
-      <c r="Z7">
-        <v>0.66</v>
-      </c>
-      <c r="AA7">
-        <v>0.88</v>
-      </c>
-      <c r="AB7">
-        <v>0.44</v>
-      </c>
-      <c r="AC7">
-        <v>1.3</v>
-      </c>
-      <c r="AD7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE7">
-        <v>2.69</v>
-      </c>
-      <c r="AF7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>1.71</v>
-      </c>
-      <c r="AH7">
-        <v>0.36</v>
-      </c>
-      <c r="AI7">
-        <v>1.55</v>
-      </c>
-      <c r="AJ7">
-        <v>1.23</v>
-      </c>
-      <c r="AK7">
-        <v>1.02</v>
-      </c>
-      <c r="AL7">
-        <v>1.54</v>
-      </c>
-      <c r="AM7">
-        <v>2.31</v>
-      </c>
-      <c r="AN7">
-        <v>0.73</v>
-      </c>
-      <c r="AO7">
-        <v>0.68</v>
-      </c>
-      <c r="AP7">
-        <v>0.53</v>
-      </c>
-      <c r="AQ7">
-        <v>1.02</v>
-      </c>
-      <c r="AR7">
-        <v>0.7</v>
-      </c>
-      <c r="AS7">
-        <v>1.77</v>
-      </c>
-      <c r="AT7">
-        <v>0.49</v>
-      </c>
-      <c r="AU7">
-        <v>1.82</v>
-      </c>
-      <c r="AV7">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="AW7">
-        <v>1.41</v>
-      </c>
-      <c r="AX7">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>0.98</v>
-      </c>
-      <c r="C8">
-        <v>1.53</v>
-      </c>
-      <c r="D8">
-        <v>0.81</v>
-      </c>
-      <c r="E8">
-        <v>0.9</v>
-      </c>
-      <c r="F8">
-        <v>1.37</v>
-      </c>
-      <c r="G8">
-        <v>0.8</v>
-      </c>
-      <c r="H8">
-        <v>1.27</v>
-      </c>
-      <c r="I8">
-        <v>0.77</v>
-      </c>
-      <c r="J8">
-        <v>0.47</v>
-      </c>
-      <c r="K8">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="L8">
-        <v>0.97</v>
-      </c>
-      <c r="M8">
-        <v>0.98</v>
-      </c>
-      <c r="N8">
-        <v>1.01</v>
-      </c>
-      <c r="O8">
-        <v>0.88</v>
-      </c>
-      <c r="P8">
-        <v>0.88</v>
-      </c>
-      <c r="Q8">
-        <v>0.76</v>
-      </c>
-      <c r="R8">
-        <v>0.94</v>
-      </c>
-      <c r="S8">
-        <v>1.04</v>
-      </c>
-      <c r="T8">
-        <v>0.86</v>
-      </c>
-      <c r="U8">
-        <v>0.86</v>
-      </c>
-      <c r="V8">
-        <v>1.02</v>
-      </c>
-      <c r="W8">
-        <v>2.14</v>
-      </c>
-      <c r="X8">
-        <v>0.78</v>
-      </c>
-      <c r="Y8">
-        <v>1.24</v>
-      </c>
-      <c r="Z8">
-        <v>0.97</v>
-      </c>
-      <c r="AA8">
-        <v>0.76</v>
-      </c>
-      <c r="AB8">
-        <v>0.72</v>
-      </c>
-      <c r="AC8">
-        <v>1.2</v>
-      </c>
-      <c r="AD8">
-        <v>1.42</v>
-      </c>
-      <c r="AE8">
-        <v>1.35</v>
-      </c>
-      <c r="AF8">
-        <v>0.83</v>
-      </c>
-      <c r="AG8">
-        <v>1.38</v>
-      </c>
-      <c r="AH8">
-        <v>0.94</v>
-      </c>
-      <c r="AI8">
-        <v>0.86</v>
-      </c>
-      <c r="AJ8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AK8">
-        <v>0.79</v>
-      </c>
-      <c r="AL8">
-        <v>0.96</v>
-      </c>
-      <c r="AM8">
-        <v>1.38</v>
-      </c>
-      <c r="AN8">
-        <v>0.91</v>
-      </c>
-      <c r="AO8">
-        <v>0.78</v>
-      </c>
-      <c r="AP8">
-        <v>0.88</v>
-      </c>
-      <c r="AQ8">
-        <v>0.9</v>
-      </c>
-      <c r="AR8">
-        <v>0.67</v>
-      </c>
-      <c r="AS8">
-        <v>1.45</v>
-      </c>
-      <c r="AT8">
-        <v>0.88</v>
-      </c>
-      <c r="AU8">
-        <v>1.53</v>
-      </c>
-      <c r="AV8">
-        <v>1.64</v>
-      </c>
-      <c r="AW8">
-        <v>0.83</v>
-      </c>
-      <c r="AX8">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>14.97</v>
-      </c>
-      <c r="C9">
-        <v>13.8</v>
-      </c>
-      <c r="D9">
-        <v>15.62</v>
-      </c>
-      <c r="E9">
-        <v>15.05</v>
-      </c>
-      <c r="F9">
-        <v>13.93</v>
-      </c>
-      <c r="G9">
-        <v>15.04</v>
-      </c>
-      <c r="H9">
-        <v>13.54</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>18.29</v>
-      </c>
-      <c r="K9">
-        <v>12.91</v>
-      </c>
-      <c r="L9">
-        <v>14.38</v>
-      </c>
-      <c r="M9">
-        <v>14.12</v>
-      </c>
-      <c r="N9">
-        <v>14.6</v>
-      </c>
-      <c r="O9">
-        <v>15.23</v>
-      </c>
-      <c r="P9">
-        <v>14.01</v>
-      </c>
-      <c r="Q9">
-        <v>15.01</v>
-      </c>
-      <c r="R9">
-        <v>13.94</v>
-      </c>
-      <c r="S9">
-        <v>13.7</v>
-      </c>
-      <c r="T9">
-        <v>13.8</v>
-      </c>
-      <c r="U9">
-        <v>14.67</v>
-      </c>
-      <c r="V9">
-        <v>13.21</v>
-      </c>
-      <c r="W9">
-        <v>13.37</v>
-      </c>
-      <c r="X9">
-        <v>14.86</v>
-      </c>
-      <c r="Y9">
-        <v>12.95</v>
-      </c>
-      <c r="Z9">
-        <v>15.1</v>
-      </c>
-      <c r="AA9">
-        <v>14.96</v>
-      </c>
-      <c r="AB9">
-        <v>14.86</v>
-      </c>
-      <c r="AC9">
-        <v>13.29</v>
-      </c>
-      <c r="AD9">
-        <v>12.94</v>
-      </c>
-      <c r="AE9">
-        <v>13.61</v>
-      </c>
-      <c r="AF9">
-        <v>14.35</v>
-      </c>
-      <c r="AG9">
-        <v>13.35</v>
-      </c>
-      <c r="AH9">
-        <v>13.95</v>
-      </c>
-      <c r="AI9">
-        <v>15.05</v>
-      </c>
-      <c r="AJ9">
-        <v>13.2</v>
-      </c>
-      <c r="AK9">
-        <v>15.1</v>
-      </c>
-      <c r="AL9">
-        <v>13.85</v>
-      </c>
-      <c r="AM9">
-        <v>13.61</v>
-      </c>
-      <c r="AN9">
-        <v>14.67</v>
-      </c>
-      <c r="AO9">
-        <v>16.21</v>
-      </c>
-      <c r="AP9">
-        <v>14.74</v>
-      </c>
-      <c r="AQ9">
-        <v>15.14</v>
-      </c>
-      <c r="AR9">
-        <v>15.57</v>
-      </c>
-      <c r="AS9">
-        <v>13.9</v>
-      </c>
-      <c r="AT9">
-        <v>14.54</v>
-      </c>
-      <c r="AU9">
-        <v>12.97</v>
-      </c>
-      <c r="AV9">
-        <v>14.21</v>
-      </c>
-      <c r="AW9">
-        <v>13.83</v>
-      </c>
-      <c r="AX9">
-        <v>16.37</v>
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>
@@ -5594,7 +5296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A7DA8D-46C4-FD45-8E25-D98271EFF255}">
   <dimension ref="A1:AY2"/>
   <sheetViews>
@@ -5609,157 +5311,157 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="K1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>43</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>44</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>45</v>
       </c>
-      <c r="V1" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" t="s">
         <v>48</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>49</v>
       </c>
-      <c r="Y1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AI1" t="s">
         <v>50</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AJ1" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AK1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AL1" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AM1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AO1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP1" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AQ1" t="s">
         <v>57</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>66</v>
       </c>
       <c r="AR1" t="s">
         <v>10</v>
       </c>
       <c r="AS1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AT1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="AU1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="AV1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="AW1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="AY1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.2">
@@ -5922,1382 +5624,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED49763D-476B-9E4F-B972-18DC70DDC881}">
-  <dimension ref="A1:AX9"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{355BA315-07C5-1346-8104-7B239232D5F2}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AX10" sqref="AX10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" t="s">
-        <v>44</v>
-      </c>
-      <c r="V1" t="s">
-        <v>45</v>
-      </c>
-      <c r="W1" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV1" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>105.8</v>
       </c>
       <c r="B2">
-        <v>13.68</v>
+        <v>43.61</v>
       </c>
       <c r="C2">
-        <v>14.81</v>
+        <v>43.61</v>
       </c>
       <c r="D2">
-        <v>14.82</v>
-      </c>
-      <c r="E2">
-        <v>14.27</v>
-      </c>
-      <c r="F2">
-        <v>13.74</v>
-      </c>
-      <c r="G2">
-        <v>13.31</v>
-      </c>
-      <c r="H2">
-        <v>16.62</v>
-      </c>
-      <c r="I2">
-        <v>15.48</v>
-      </c>
-      <c r="J2">
-        <v>15.25</v>
-      </c>
-      <c r="K2">
-        <v>13.91</v>
-      </c>
-      <c r="L2">
-        <v>16.809999999999999</v>
-      </c>
-      <c r="M2">
-        <v>12.37</v>
-      </c>
-      <c r="N2">
-        <v>13.34</v>
-      </c>
-      <c r="O2">
-        <v>14.32</v>
-      </c>
-      <c r="P2">
-        <v>12.14</v>
-      </c>
-      <c r="Q2">
-        <v>13.92</v>
-      </c>
-      <c r="R2">
-        <v>14.84</v>
-      </c>
-      <c r="S2">
-        <v>16.940000000000001</v>
-      </c>
-      <c r="T2">
-        <v>14.18</v>
-      </c>
-      <c r="U2">
-        <v>12.78</v>
-      </c>
-      <c r="V2">
-        <v>12.85</v>
-      </c>
-      <c r="W2">
-        <v>20.13</v>
-      </c>
-      <c r="X2">
-        <v>14.74</v>
-      </c>
-      <c r="Y2">
-        <v>12.67</v>
-      </c>
-      <c r="Z2">
-        <v>16.809999999999999</v>
-      </c>
-      <c r="AA2">
-        <v>15.35</v>
-      </c>
-      <c r="AB2">
-        <v>14.59</v>
-      </c>
-      <c r="AC2">
-        <v>18.03</v>
-      </c>
-      <c r="AD2">
-        <v>14.46</v>
-      </c>
-      <c r="AE2">
-        <v>12.86</v>
-      </c>
-      <c r="AF2">
-        <v>14.97</v>
-      </c>
-      <c r="AG2">
-        <v>14.4</v>
-      </c>
-      <c r="AH2">
-        <v>14.94</v>
-      </c>
-      <c r="AI2">
-        <v>14.02</v>
-      </c>
-      <c r="AJ2">
-        <v>14.63</v>
-      </c>
-      <c r="AK2">
-        <v>13.64</v>
-      </c>
-      <c r="AL2">
-        <v>13.77</v>
-      </c>
-      <c r="AM2">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="AN2">
-        <v>14.21</v>
-      </c>
-      <c r="AO2">
-        <v>15.12</v>
-      </c>
-      <c r="AP2">
-        <v>15.21</v>
-      </c>
-      <c r="AQ2">
-        <v>14.16</v>
-      </c>
-      <c r="AR2">
-        <v>14.07</v>
-      </c>
-      <c r="AS2">
-        <v>20.46</v>
-      </c>
-      <c r="AT2">
-        <v>13.41</v>
-      </c>
-      <c r="AU2">
-        <v>14.31</v>
-      </c>
-      <c r="AV2">
-        <v>14.07</v>
-      </c>
-      <c r="AW2">
-        <v>13.89</v>
-      </c>
-      <c r="AX2">
-        <v>15.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>0.78</v>
-      </c>
-      <c r="C3">
-        <v>2.93</v>
-      </c>
-      <c r="D3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E3">
-        <v>0.99</v>
-      </c>
-      <c r="F3">
-        <v>2.1</v>
-      </c>
-      <c r="G3">
-        <v>0.72</v>
-      </c>
-      <c r="H3">
-        <v>2.5</v>
-      </c>
-      <c r="I3">
-        <v>1.27</v>
-      </c>
-      <c r="J3">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K3">
-        <v>0.66</v>
-      </c>
-      <c r="L3">
-        <v>0.93</v>
-      </c>
-      <c r="M3">
-        <v>1.4</v>
-      </c>
-      <c r="N3">
-        <v>2.17</v>
-      </c>
-      <c r="O3">
-        <v>0.65</v>
-      </c>
-      <c r="P3">
-        <v>1.88</v>
-      </c>
-      <c r="Q3">
-        <v>0.72</v>
-      </c>
-      <c r="R3">
-        <v>1.06</v>
-      </c>
-      <c r="S3">
-        <v>0.68</v>
-      </c>
-      <c r="T3">
-        <v>1.29</v>
-      </c>
-      <c r="U3">
-        <v>1.05</v>
-      </c>
-      <c r="V3">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="W3">
-        <v>1.83</v>
-      </c>
-      <c r="X3">
-        <v>0.89</v>
-      </c>
-      <c r="Y3">
-        <v>2.12</v>
-      </c>
-      <c r="Z3">
-        <v>0.66</v>
-      </c>
-      <c r="AA3">
-        <v>0.88</v>
-      </c>
-      <c r="AB3">
-        <v>0.44</v>
-      </c>
-      <c r="AC3">
-        <v>1.3</v>
-      </c>
-      <c r="AD3">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE3">
-        <v>2.69</v>
-      </c>
-      <c r="AF3">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AG3">
-        <v>1.71</v>
-      </c>
-      <c r="AH3">
-        <v>0.36</v>
-      </c>
-      <c r="AI3">
-        <v>1.55</v>
-      </c>
-      <c r="AJ3">
-        <v>1.23</v>
-      </c>
-      <c r="AK3">
-        <v>1.02</v>
-      </c>
-      <c r="AL3">
-        <v>1.54</v>
-      </c>
-      <c r="AM3">
-        <v>2.31</v>
-      </c>
-      <c r="AN3">
-        <v>0.73</v>
-      </c>
-      <c r="AO3">
-        <v>0.68</v>
-      </c>
-      <c r="AP3">
-        <v>0.53</v>
-      </c>
-      <c r="AQ3">
-        <v>1.02</v>
-      </c>
-      <c r="AR3">
-        <v>0.7</v>
-      </c>
-      <c r="AS3">
-        <v>1.77</v>
-      </c>
-      <c r="AT3">
-        <v>0.49</v>
-      </c>
-      <c r="AU3">
-        <v>1.82</v>
-      </c>
-      <c r="AV3">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="AW3">
-        <v>1.41</v>
-      </c>
-      <c r="AX3">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>0.98</v>
-      </c>
-      <c r="C4">
-        <v>1.53</v>
-      </c>
-      <c r="D4">
-        <v>0.81</v>
-      </c>
-      <c r="E4">
-        <v>0.9</v>
-      </c>
-      <c r="F4">
-        <v>1.37</v>
-      </c>
-      <c r="G4">
-        <v>0.8</v>
-      </c>
-      <c r="H4">
-        <v>1.27</v>
-      </c>
-      <c r="I4">
-        <v>0.77</v>
-      </c>
-      <c r="J4">
-        <v>0.47</v>
-      </c>
-      <c r="K4">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="L4">
-        <v>0.97</v>
-      </c>
-      <c r="M4">
-        <v>0.98</v>
-      </c>
-      <c r="N4">
-        <v>1.01</v>
-      </c>
-      <c r="O4">
-        <v>0.88</v>
-      </c>
-      <c r="P4">
-        <v>0.88</v>
-      </c>
-      <c r="Q4">
-        <v>0.76</v>
-      </c>
-      <c r="R4">
-        <v>0.94</v>
-      </c>
-      <c r="S4">
-        <v>1.04</v>
-      </c>
-      <c r="T4">
-        <v>0.86</v>
-      </c>
-      <c r="U4">
-        <v>0.86</v>
-      </c>
-      <c r="V4">
-        <v>1.02</v>
-      </c>
-      <c r="W4">
-        <v>2.14</v>
-      </c>
-      <c r="X4">
-        <v>0.78</v>
-      </c>
-      <c r="Y4">
-        <v>1.24</v>
-      </c>
-      <c r="Z4">
-        <v>0.97</v>
-      </c>
-      <c r="AA4">
-        <v>0.76</v>
-      </c>
-      <c r="AB4">
-        <v>0.72</v>
-      </c>
-      <c r="AC4">
-        <v>1.2</v>
-      </c>
-      <c r="AD4">
-        <v>1.42</v>
-      </c>
-      <c r="AE4">
-        <v>1.35</v>
-      </c>
-      <c r="AF4">
-        <v>0.83</v>
-      </c>
-      <c r="AG4">
-        <v>1.38</v>
-      </c>
-      <c r="AH4">
-        <v>0.94</v>
-      </c>
-      <c r="AI4">
-        <v>0.86</v>
-      </c>
-      <c r="AJ4">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AK4">
-        <v>0.79</v>
-      </c>
-      <c r="AL4">
-        <v>0.96</v>
-      </c>
-      <c r="AM4">
-        <v>1.38</v>
-      </c>
-      <c r="AN4">
-        <v>0.91</v>
-      </c>
-      <c r="AO4">
-        <v>0.78</v>
-      </c>
-      <c r="AP4">
-        <v>0.88</v>
-      </c>
-      <c r="AQ4">
-        <v>0.9</v>
-      </c>
-      <c r="AR4">
-        <v>0.67</v>
-      </c>
-      <c r="AS4">
-        <v>1.45</v>
-      </c>
-      <c r="AT4">
-        <v>0.88</v>
-      </c>
-      <c r="AU4">
-        <v>1.53</v>
-      </c>
-      <c r="AV4">
-        <v>1.64</v>
-      </c>
-      <c r="AW4">
-        <v>0.83</v>
-      </c>
-      <c r="AX4">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5">
-        <v>14.97</v>
-      </c>
-      <c r="C5">
-        <v>13.8</v>
-      </c>
-      <c r="D5">
-        <v>15.62</v>
-      </c>
-      <c r="E5">
-        <v>15.05</v>
-      </c>
-      <c r="F5">
-        <v>13.93</v>
-      </c>
-      <c r="G5">
-        <v>15.04</v>
-      </c>
-      <c r="H5">
-        <v>13.54</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
-      </c>
-      <c r="J5">
-        <v>18.29</v>
-      </c>
-      <c r="K5">
-        <v>12.91</v>
-      </c>
-      <c r="L5">
-        <v>14.38</v>
-      </c>
-      <c r="M5">
-        <v>14.12</v>
-      </c>
-      <c r="N5">
-        <v>14.6</v>
-      </c>
-      <c r="O5">
-        <v>15.23</v>
-      </c>
-      <c r="P5">
-        <v>14.01</v>
-      </c>
-      <c r="Q5">
-        <v>15.01</v>
-      </c>
-      <c r="R5">
-        <v>13.94</v>
-      </c>
-      <c r="S5">
-        <v>13.7</v>
-      </c>
-      <c r="T5">
-        <v>13.8</v>
-      </c>
-      <c r="U5">
-        <v>14.67</v>
-      </c>
-      <c r="V5">
-        <v>13.21</v>
-      </c>
-      <c r="W5">
-        <v>13.37</v>
-      </c>
-      <c r="X5">
-        <v>14.86</v>
-      </c>
-      <c r="Y5">
-        <v>12.95</v>
-      </c>
-      <c r="Z5">
-        <v>15.1</v>
-      </c>
-      <c r="AA5">
-        <v>14.96</v>
-      </c>
-      <c r="AB5">
-        <v>14.86</v>
-      </c>
-      <c r="AC5">
-        <v>13.29</v>
-      </c>
-      <c r="AD5">
-        <v>12.94</v>
-      </c>
-      <c r="AE5">
-        <v>13.61</v>
-      </c>
-      <c r="AF5">
-        <v>14.35</v>
-      </c>
-      <c r="AG5">
-        <v>13.35</v>
-      </c>
-      <c r="AH5">
-        <v>13.95</v>
-      </c>
-      <c r="AI5">
-        <v>15.05</v>
-      </c>
-      <c r="AJ5">
-        <v>13.2</v>
-      </c>
-      <c r="AK5">
-        <v>15.1</v>
-      </c>
-      <c r="AL5">
-        <v>13.85</v>
-      </c>
-      <c r="AM5">
-        <v>13.61</v>
-      </c>
-      <c r="AN5">
-        <v>14.67</v>
-      </c>
-      <c r="AO5">
-        <v>16.21</v>
-      </c>
-      <c r="AP5">
-        <v>14.74</v>
-      </c>
-      <c r="AQ5">
-        <v>15.14</v>
-      </c>
-      <c r="AR5">
-        <v>15.57</v>
-      </c>
-      <c r="AS5">
-        <v>13.9</v>
-      </c>
-      <c r="AT5">
-        <v>14.54</v>
-      </c>
-      <c r="AU5">
-        <v>12.97</v>
-      </c>
-      <c r="AV5">
-        <v>14.21</v>
-      </c>
-      <c r="AW5">
-        <v>13.83</v>
-      </c>
-      <c r="AX5">
-        <v>16.37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6">
-        <v>14.47</v>
-      </c>
-      <c r="C6">
-        <v>17.73</v>
-      </c>
-      <c r="D6">
-        <v>15.39</v>
-      </c>
-      <c r="E6">
-        <v>15.26</v>
-      </c>
-      <c r="F6">
-        <v>15.84</v>
-      </c>
-      <c r="G6">
-        <v>14.02</v>
-      </c>
-      <c r="H6">
-        <v>19.13</v>
-      </c>
-      <c r="I6">
-        <v>16.75</v>
-      </c>
-      <c r="J6">
-        <v>15.53</v>
-      </c>
-      <c r="K6">
-        <v>14.57</v>
-      </c>
-      <c r="L6">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="M6">
-        <v>13.77</v>
-      </c>
-      <c r="N6">
-        <v>15.51</v>
-      </c>
-      <c r="O6">
-        <v>14.97</v>
-      </c>
-      <c r="P6">
-        <v>14.02</v>
-      </c>
-      <c r="Q6">
-        <v>14.64</v>
-      </c>
-      <c r="R6">
-        <v>15.89</v>
-      </c>
-      <c r="S6">
-        <v>17.62</v>
-      </c>
-      <c r="T6">
-        <v>15.47</v>
-      </c>
-      <c r="U6">
-        <v>13.83</v>
-      </c>
-      <c r="V6">
-        <v>14.91</v>
-      </c>
-      <c r="W6">
-        <v>21.95</v>
-      </c>
-      <c r="X6">
-        <v>15.63</v>
-      </c>
-      <c r="Y6">
-        <v>14.79</v>
-      </c>
-      <c r="Z6">
-        <v>17.47</v>
-      </c>
-      <c r="AA6">
-        <v>16.239999999999998</v>
-      </c>
-      <c r="AB6">
-        <v>15.03</v>
-      </c>
-      <c r="AC6">
-        <v>19.32</v>
-      </c>
-      <c r="AD6">
-        <v>15.03</v>
-      </c>
-      <c r="AE6">
-        <v>15.54</v>
-      </c>
-      <c r="AF6">
-        <v>16.09</v>
-      </c>
-      <c r="AG6">
-        <v>16.12</v>
-      </c>
-      <c r="AH6">
-        <v>15.3</v>
-      </c>
-      <c r="AI6">
-        <v>15.57</v>
-      </c>
-      <c r="AJ6">
-        <v>15.86</v>
-      </c>
-      <c r="AK6">
-        <v>14.66</v>
-      </c>
-      <c r="AL6">
-        <v>15.31</v>
-      </c>
-      <c r="AM6">
-        <v>19</v>
-      </c>
-      <c r="AN6">
-        <v>14.95</v>
-      </c>
-      <c r="AO6">
-        <v>15.79</v>
-      </c>
-      <c r="AP6">
-        <v>15.74</v>
-      </c>
-      <c r="AQ6">
-        <v>15.17</v>
-      </c>
-      <c r="AR6">
-        <v>14.78</v>
-      </c>
-      <c r="AS6">
-        <v>22.23</v>
-      </c>
-      <c r="AT6">
-        <v>13.91</v>
-      </c>
-      <c r="AU6">
-        <v>16.13</v>
-      </c>
-      <c r="AV6">
-        <v>16.62</v>
-      </c>
-      <c r="AW6">
-        <v>15.3</v>
-      </c>
-      <c r="AX6">
-        <v>16.29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>0.65</v>
-      </c>
-      <c r="C7">
-        <v>2.69</v>
-      </c>
-      <c r="D7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E7">
-        <v>0.92</v>
-      </c>
-      <c r="F7">
-        <v>1.95</v>
-      </c>
-      <c r="G7">
-        <v>0.72</v>
-      </c>
-      <c r="H7">
-        <v>2.38</v>
-      </c>
-      <c r="I7">
-        <v>1.19</v>
-      </c>
-      <c r="J7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K7">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="L7">
-        <v>0.93</v>
-      </c>
-      <c r="M7">
-        <v>1.08</v>
-      </c>
-      <c r="N7">
-        <v>2.12</v>
-      </c>
-      <c r="O7">
-        <v>0.65</v>
-      </c>
-      <c r="P7">
-        <v>1.73</v>
-      </c>
-      <c r="Q7">
-        <v>0.72</v>
-      </c>
-      <c r="R7">
-        <v>1.06</v>
-      </c>
-      <c r="S7">
-        <v>0.68</v>
-      </c>
-      <c r="T7">
-        <v>1.29</v>
-      </c>
-      <c r="U7">
-        <v>1.04</v>
-      </c>
-      <c r="V7">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="W7">
-        <v>1.75</v>
-      </c>
-      <c r="X7">
-        <v>0.78</v>
-      </c>
-      <c r="Y7">
-        <v>2.12</v>
-      </c>
-      <c r="Z7">
-        <v>0.6</v>
-      </c>
-      <c r="AA7">
-        <v>0.78</v>
-      </c>
-      <c r="AB7">
-        <v>0.5</v>
-      </c>
-      <c r="AC7">
-        <v>1.3</v>
-      </c>
-      <c r="AD7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AE7">
-        <v>2.6</v>
-      </c>
-      <c r="AF7">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AG7">
-        <v>1.69</v>
-      </c>
-      <c r="AH7">
-        <v>0.36</v>
-      </c>
-      <c r="AI7">
-        <v>1.5</v>
-      </c>
-      <c r="AJ7">
-        <v>1.23</v>
-      </c>
-      <c r="AK7">
-        <v>1.02</v>
-      </c>
-      <c r="AL7">
-        <v>1.52</v>
-      </c>
-      <c r="AM7">
-        <v>2.21</v>
-      </c>
-      <c r="AN7">
-        <v>0.72</v>
-      </c>
-      <c r="AO7">
-        <v>0.64</v>
-      </c>
-      <c r="AP7">
-        <v>0.53</v>
-      </c>
-      <c r="AQ7">
-        <v>1.02</v>
-      </c>
-      <c r="AR7">
-        <v>0.7</v>
-      </c>
-      <c r="AS7">
-        <v>1.77</v>
-      </c>
-      <c r="AT7">
-        <v>0.49</v>
-      </c>
-      <c r="AU7">
-        <v>1.67</v>
-      </c>
-      <c r="AV7">
-        <v>2.11</v>
-      </c>
-      <c r="AW7">
-        <v>1.41</v>
-      </c>
-      <c r="AX7">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>0.98</v>
-      </c>
-      <c r="C8">
-        <v>1.53</v>
-      </c>
-      <c r="D8">
-        <v>0.81</v>
-      </c>
-      <c r="E8">
-        <v>0.9</v>
-      </c>
-      <c r="F8">
-        <v>1.37</v>
-      </c>
-      <c r="G8">
-        <v>0.8</v>
-      </c>
-      <c r="H8">
-        <v>1.27</v>
-      </c>
-      <c r="I8">
-        <v>0.77</v>
-      </c>
-      <c r="J8">
-        <v>0.47</v>
-      </c>
-      <c r="K8">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="L8">
-        <v>0.97</v>
-      </c>
-      <c r="M8">
-        <v>0.98</v>
-      </c>
-      <c r="N8">
-        <v>1.01</v>
-      </c>
-      <c r="O8">
-        <v>0.88</v>
-      </c>
-      <c r="P8">
-        <v>0.88</v>
-      </c>
-      <c r="Q8">
-        <v>0.76</v>
-      </c>
-      <c r="R8">
-        <v>0.94</v>
-      </c>
-      <c r="S8">
-        <v>1.04</v>
-      </c>
-      <c r="T8">
-        <v>0.86</v>
-      </c>
-      <c r="U8">
-        <v>0.86</v>
-      </c>
-      <c r="V8">
-        <v>1.02</v>
-      </c>
-      <c r="W8">
-        <v>2.14</v>
-      </c>
-      <c r="X8">
-        <v>0.78</v>
-      </c>
-      <c r="Y8">
-        <v>1.24</v>
-      </c>
-      <c r="Z8">
-        <v>0.97</v>
-      </c>
-      <c r="AA8">
-        <v>0.76</v>
-      </c>
-      <c r="AB8">
-        <v>0.72</v>
-      </c>
-      <c r="AC8">
-        <v>1.2</v>
-      </c>
-      <c r="AD8">
-        <v>1.42</v>
-      </c>
-      <c r="AE8">
-        <v>1.35</v>
-      </c>
-      <c r="AF8">
-        <v>0.83</v>
-      </c>
-      <c r="AG8">
-        <v>1.38</v>
-      </c>
-      <c r="AH8">
-        <v>0.94</v>
-      </c>
-      <c r="AI8">
-        <v>0.86</v>
-      </c>
-      <c r="AJ8">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AK8">
-        <v>0.79</v>
-      </c>
-      <c r="AL8">
-        <v>0.96</v>
-      </c>
-      <c r="AM8">
-        <v>1.38</v>
-      </c>
-      <c r="AN8">
-        <v>0.91</v>
-      </c>
-      <c r="AO8">
-        <v>0.78</v>
-      </c>
-      <c r="AP8">
-        <v>0.88</v>
-      </c>
-      <c r="AQ8">
-        <v>0.9</v>
-      </c>
-      <c r="AR8">
-        <v>0.67</v>
-      </c>
-      <c r="AS8">
-        <v>1.45</v>
-      </c>
-      <c r="AT8">
-        <v>0.88</v>
-      </c>
-      <c r="AU8">
-        <v>1.53</v>
-      </c>
-      <c r="AV8">
-        <v>1.64</v>
-      </c>
-      <c r="AW8">
-        <v>0.83</v>
-      </c>
-      <c r="AX8">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>14.97</v>
-      </c>
-      <c r="C9">
-        <v>13.8</v>
-      </c>
-      <c r="D9">
-        <v>15.62</v>
-      </c>
-      <c r="E9">
-        <v>15.05</v>
-      </c>
-      <c r="F9">
-        <v>13.93</v>
-      </c>
-      <c r="G9">
-        <v>15.04</v>
-      </c>
-      <c r="H9">
-        <v>13.54</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>18.29</v>
-      </c>
-      <c r="K9">
-        <v>12.91</v>
-      </c>
-      <c r="L9">
-        <v>14.38</v>
-      </c>
-      <c r="M9">
-        <v>14.12</v>
-      </c>
-      <c r="N9">
-        <v>14.6</v>
-      </c>
-      <c r="O9">
-        <v>15.23</v>
-      </c>
-      <c r="P9">
-        <v>14.01</v>
-      </c>
-      <c r="Q9">
-        <v>15.01</v>
-      </c>
-      <c r="R9">
-        <v>13.94</v>
-      </c>
-      <c r="S9">
-        <v>13.7</v>
-      </c>
-      <c r="T9">
-        <v>13.8</v>
-      </c>
-      <c r="U9">
-        <v>14.67</v>
-      </c>
-      <c r="V9">
-        <v>13.21</v>
-      </c>
-      <c r="W9">
-        <v>13.37</v>
-      </c>
-      <c r="X9">
-        <v>14.86</v>
-      </c>
-      <c r="Y9">
-        <v>12.95</v>
-      </c>
-      <c r="Z9">
-        <v>15.1</v>
-      </c>
-      <c r="AA9">
-        <v>14.96</v>
-      </c>
-      <c r="AB9">
-        <v>14.86</v>
-      </c>
-      <c r="AC9">
-        <v>13.29</v>
-      </c>
-      <c r="AD9">
-        <v>12.94</v>
-      </c>
-      <c r="AE9">
-        <v>13.61</v>
-      </c>
-      <c r="AF9">
-        <v>14.35</v>
-      </c>
-      <c r="AG9">
-        <v>13.35</v>
-      </c>
-      <c r="AH9">
-        <v>13.95</v>
-      </c>
-      <c r="AI9">
-        <v>15.05</v>
-      </c>
-      <c r="AJ9">
-        <v>13.2</v>
-      </c>
-      <c r="AK9">
-        <v>15.1</v>
-      </c>
-      <c r="AL9">
-        <v>13.85</v>
-      </c>
-      <c r="AM9">
-        <v>13.61</v>
-      </c>
-      <c r="AN9">
-        <v>14.67</v>
-      </c>
-      <c r="AO9">
-        <v>16.21</v>
-      </c>
-      <c r="AP9">
-        <v>14.74</v>
-      </c>
-      <c r="AQ9">
-        <v>15.14</v>
-      </c>
-      <c r="AR9">
-        <v>15.57</v>
-      </c>
-      <c r="AS9">
-        <v>13.9</v>
-      </c>
-      <c r="AT9">
-        <v>14.54</v>
-      </c>
-      <c r="AU9">
-        <v>12.97</v>
-      </c>
-      <c r="AV9">
-        <v>14.21</v>
-      </c>
-      <c r="AW9">
-        <v>13.83</v>
-      </c>
-      <c r="AX9">
-        <v>16.37</v>
+        <v>43.61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96071F37-3BD4-F747-9362-8F98144F29F6}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data/RL_input.xlsx
+++ b/data/RL_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Interface_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A3BED5-3C06-4442-81D7-549F7590DA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5058DEF5-6D13-A94B-B756-473CB375DD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="2680" windowWidth="19420" windowHeight="12260" activeTab="2" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
+    <workbookView xWindow="2140" yWindow="3460" windowWidth="19420" windowHeight="12260" activeTab="3" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
   </bookViews>
   <sheets>
     <sheet name="VSL" sheetId="1" r:id="rId1"/>
@@ -1690,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4CD20C6-A442-674F-A561-9B6083CE3F6D}">
   <dimension ref="A1:BA17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+    <sheetView zoomScale="115" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
@@ -4284,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8A6DB2-47D9-364B-886F-A684F3E3E595}">
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4456,160 +4456,160 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="C2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="D2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="E2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="F2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="G2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="H2">
-        <v>20200411</v>
+        <v>20200401</v>
       </c>
       <c r="I2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="J2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="K2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="L2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="M2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="N2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="O2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="P2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="Q2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="R2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="S2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="T2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="U2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="V2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="W2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="X2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="Y2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="Z2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AA2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AB2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AC2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AD2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AE2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AF2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AG2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AH2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AI2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AJ2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AK2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AL2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AM2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AN2">
-        <v>20200411</v>
+        <v>20200401</v>
       </c>
       <c r="AO2">
-        <v>20200411</v>
+        <v>20200401</v>
       </c>
       <c r="AP2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AQ2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AR2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AS2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AT2">
-        <v>20200411</v>
+        <v>20200401</v>
       </c>
       <c r="AU2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AV2">
-        <v>20200411</v>
+        <v>20200401</v>
       </c>
       <c r="AW2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AX2">
-        <v>20200411</v>
+        <v>20200401</v>
       </c>
       <c r="AY2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="AZ2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
       <c r="BA2">
-        <v>20200801</v>
+        <v>20200401</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">

--- a/data/RL_input.xlsx
+++ b/data/RL_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eleanor/Documents/GitHub/COVID19/Interface_model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5058DEF5-6D13-A94B-B756-473CB375DD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B942B64D-0C8B-864E-AF55-96B60C71AA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="3460" windowWidth="19420" windowHeight="12260" activeTab="3" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
+    <workbookView xWindow="9780" yWindow="4040" windowWidth="19420" windowHeight="12260" activeTab="3" xr2:uid="{96C41B70-22ED-C54B-8170-43C10D55C89D}"/>
   </bookViews>
   <sheets>
     <sheet name="VSL" sheetId="1" r:id="rId1"/>
@@ -4284,8 +4284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E8A6DB2-47D9-364B-886F-A684F3E3E595}">
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4456,160 +4456,160 @@
         <v>75</v>
       </c>
       <c r="B2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="C2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="D2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="E2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="F2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="G2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="H2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="I2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="J2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="K2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="L2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="M2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="N2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="O2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="P2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="Q2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="R2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="S2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="T2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="U2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="V2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="W2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="X2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="Y2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="Z2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AA2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AB2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AC2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AD2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AE2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AF2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AG2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AH2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AI2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AJ2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AK2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AL2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AM2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AN2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AO2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AP2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AQ2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AR2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AS2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AT2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AU2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AV2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AW2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AX2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AY2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="AZ2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
       <c r="BA2">
-        <v>20200401</v>
+        <v>20200411</v>
       </c>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.2">
